--- a/с одной зубчатой передчей/РАСЧЁТЫ_РПЗ (Автосохраненный).xlsx
+++ b/с одной зубчатой передчей/РАСЧЁТЫ_РПЗ (Автосохраненный).xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22821"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\OneDrive\Курсач ДММ\course_project_dmm\с одной зубчатой передчей\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_5B1CB4E1B8261384D0E77FC31DCC496FA099F86B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -29,40 +38,88 @@
     <t>Скорость лине перемещений</t>
   </si>
   <si>
+    <t>число на шестерни</t>
+  </si>
+  <si>
+    <t>млщность расч</t>
+  </si>
+  <si>
     <t>шаг резьюы</t>
   </si>
   <si>
+    <t>число на 1зк</t>
+  </si>
+  <si>
+    <t>мощность двигателя</t>
+  </si>
+  <si>
     <t>Сила</t>
   </si>
   <si>
+    <t>число на 2зк</t>
+  </si>
+  <si>
+    <t>фулл кпд</t>
+  </si>
+  <si>
     <t>внутр диам д2</t>
   </si>
   <si>
+    <t>ЧИСЛО СТУПЕНЕЙ</t>
+  </si>
+  <si>
+    <t>коэф запаса</t>
+  </si>
+  <si>
     <t>диаметр д1</t>
   </si>
   <si>
+    <t>НОВОЕ ПЕРЕДАТОЧНОЕ ЧИСЛО</t>
+  </si>
+  <si>
+    <t>угловая скорость</t>
+  </si>
+  <si>
+    <t>УТОЧНЁННОЕ И0</t>
+  </si>
+  <si>
+    <t>угловая скорость вых вала</t>
+  </si>
+  <si>
+    <t>ПОГРЕШНОСТЬ ВЫБОРА И0</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
     <t>передаточное отношение</t>
   </si>
   <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>с*</t>
+  </si>
+  <si>
     <t>число ступеней</t>
   </si>
   <si>
+    <t>делит диам</t>
+  </si>
+  <si>
+    <t>округлённое передаточное отношение</t>
+  </si>
+  <si>
+    <t>модуль</t>
+  </si>
+  <si>
     <t>передаточные отношения степеней</t>
   </si>
   <si>
-    <t>число на шестерни</t>
-  </si>
-  <si>
-    <t>ЧИСЛО СТУПЕНЕЙ</t>
-  </si>
-  <si>
-    <t>НОВОЕ ПЕРЕДАТОЧНОЕ ЧИСЛО</t>
-  </si>
-  <si>
-    <t>УТОЧНЁННОЕ И0</t>
-  </si>
-  <si>
-    <t>ПОГРЕШНОСТЬ ВЫБОРА И0</t>
+    <t>округлённое и1</t>
+  </si>
+  <si>
+    <t>геометричексий расчёт</t>
   </si>
   <si>
     <t>Силовой расчёт</t>
@@ -71,6 +128,12 @@
     <t>α</t>
   </si>
   <si>
+    <t>число нагружений</t>
+  </si>
+  <si>
+    <t>диам верш зуб</t>
+  </si>
+  <si>
     <t>β</t>
   </si>
   <si>
@@ -83,6 +146,15 @@
     <t>момент нагрузки стат</t>
   </si>
   <si>
+    <t>приведённый стат момент</t>
+  </si>
+  <si>
+    <t>Kfl</t>
+  </si>
+  <si>
+    <t>дима впадин</t>
+  </si>
+  <si>
     <t>1 вал</t>
   </si>
   <si>
@@ -92,112 +164,82 @@
     <t>3 вал</t>
   </si>
   <si>
-    <t>число нагружений</t>
-  </si>
-  <si>
     <t>рабочий цикл</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>частота вращения дви</t>
   </si>
   <si>
-    <t>Kfl</t>
-  </si>
-  <si>
-    <t>m</t>
+    <t>окружной шаг</t>
+  </si>
+  <si>
+    <t>проектный расчёт вала</t>
+  </si>
+  <si>
+    <t>ширина колеса</t>
   </si>
   <si>
     <t>какая хуета которая чуть дальше</t>
   </si>
   <si>
+    <t>ширина шестерни</t>
+  </si>
+  <si>
+    <t>межосевое расстояние</t>
+  </si>
+  <si>
     <t>МОДули зк</t>
   </si>
   <si>
-    <t>геометричексий расчёт</t>
-  </si>
-  <si>
-    <t>модуль</t>
-  </si>
-  <si>
-    <t>делит диам</t>
-  </si>
-  <si>
-    <t>диам верш зуб</t>
-  </si>
-  <si>
-    <t>с*</t>
-  </si>
-  <si>
-    <t>дима впадин</t>
-  </si>
-  <si>
-    <t>окружной шаг</t>
-  </si>
-  <si>
-    <t>ширина колеса</t>
-  </si>
-  <si>
-    <t>ширина шестерни</t>
-  </si>
-  <si>
-    <t>межосевое расстояние</t>
-  </si>
-  <si>
     <t>зк</t>
   </si>
   <si>
+    <t>ФРИКЦИОННАЯ МУУУУФ ТАААА</t>
+  </si>
+  <si>
     <t>шестерня</t>
   </si>
   <si>
-    <t>проектный расчёт вала</t>
-  </si>
-  <si>
-    <t>ФРИКЦИОННАЯ МУУУУФ ТАААА</t>
-  </si>
-  <si>
-    <t>коэф запаса</t>
-  </si>
-  <si>
     <t>момент на винте</t>
   </si>
   <si>
     <t>момент предохр муфты</t>
   </si>
   <si>
+    <t>число пружин на муфте</t>
+  </si>
+  <si>
     <t>внешний д фр кционныз дик</t>
   </si>
   <si>
+    <t>коэф трения</t>
+  </si>
+  <si>
     <t>ынутр дим фр дикс</t>
   </si>
   <si>
     <t>привед рад пяты</t>
   </si>
   <si>
+    <t>коэф сдвига пружиныыы</t>
+  </si>
+  <si>
     <t>сила прижимная</t>
   </si>
   <si>
+    <t>витка</t>
+  </si>
+  <si>
     <t>макс сила деформ</t>
   </si>
   <si>
-    <t>число на 1зк</t>
-  </si>
-  <si>
-    <t>число на 2зк</t>
-  </si>
-  <si>
-    <t>округлённое и1</t>
-  </si>
-  <si>
-    <t>i1</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>число пружин на муфте</t>
-  </si>
-  <si>
-    <t>коэф трения</t>
+    <t>сила рижимная с 1 пружиной</t>
+  </si>
+  <si>
+    <t>прижимная сила при маленьких зк</t>
   </si>
   <si>
     <t>ПРУЖИИНАААА</t>
@@ -206,39 +248,45 @@
     <t>диам</t>
   </si>
   <si>
+    <t>раб ход</t>
+  </si>
+  <si>
     <t>витка диам</t>
   </si>
   <si>
+    <t>с</t>
+  </si>
+  <si>
     <t>жесткость</t>
   </si>
   <si>
+    <t>число витков</t>
+  </si>
+  <si>
     <t>сред диам</t>
   </si>
   <si>
     <t>индекс пруж</t>
   </si>
   <si>
+    <t>опор</t>
+  </si>
+  <si>
     <t>рабочие витки</t>
   </si>
   <si>
+    <t>уточнённая жесткость</t>
+  </si>
+  <si>
     <t>опорные витки</t>
   </si>
   <si>
     <t>общее число</t>
   </si>
   <si>
-    <t>коэф сдвига пружиныыы</t>
-  </si>
-  <si>
     <t>рассчётная жёсткость пружиины</t>
   </si>
   <si>
-    <t>раб ход</t>
-  </si>
-  <si>
-    <t>витка</t>
-  </si>
-  <si>
     <t>РАБ ДЕФОРМ ПРУЖ</t>
   </si>
   <si>
@@ -246,56 +294,17 @@
   </si>
   <si>
     <t>ДЛИНА ПРУЖИНЫ</t>
-  </si>
-  <si>
-    <t>мощность двигателя</t>
-  </si>
-  <si>
-    <t>млщность расч</t>
-  </si>
-  <si>
-    <t>фулл кпд</t>
-  </si>
-  <si>
-    <t>с</t>
-  </si>
-  <si>
-    <t>число витков</t>
-  </si>
-  <si>
-    <t>опор</t>
-  </si>
-  <si>
-    <t>угловая скорость</t>
-  </si>
-  <si>
-    <t>угловая скорость вых вала</t>
-  </si>
-  <si>
-    <t>приведённый стат момент</t>
-  </si>
-  <si>
-    <t>округлённое передаточное отношение</t>
-  </si>
-  <si>
-    <t>сила рижимная с 1 пружиной</t>
-  </si>
-  <si>
-    <t>прижимная сила при маленьких зк</t>
-  </si>
-  <si>
-    <t>уточнённая жесткость</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,14 +744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
@@ -752,21 +761,21 @@
     <col min="8" max="8" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="E1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="E2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,94 +783,94 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5">
         <v>150</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
         <f>(G5*G8)/G7</f>
         <v>9.0196078431372531</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
         <f>0.51*0.9</f>
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <f>10 + 0.5</f>
         <v>10.5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <f>ROUND(B15,0)</f>
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>12</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="D10" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
         <f>E6/E5</f>
@@ -869,15 +878,15 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
         <f>E14*E13</f>
@@ -885,15 +894,15 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>188</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E12" s="9">
         <f>(B14-E11)/B14</f>
@@ -901,9 +910,9 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="D13" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1">
         <f>E6/E5</f>
@@ -911,58 +920,58 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5">
         <f>B12/B11</f>
         <v>7.52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1">
         <f>E7/E5</f>
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G14">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5">
         <f>1.85*LOG10(B14)</f>
         <v>1.6210030050945381</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5">
         <f>ROUND(B14,1)</f>
         <v>7.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5">
         <f>B14^(1/2)</f>
@@ -972,9 +981,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5">
         <f>2.1</f>
@@ -984,13 +993,13 @@
         <v>3</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="14" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
@@ -1000,7 +1009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="F20" s="15">
         <v>2</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="F21" s="15">
         <v>3</v>
       </c>
@@ -1018,9 +1027,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F22" s="15">
         <v>4</v>
@@ -1030,15 +1039,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3">
         <v>30</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="15"/>
@@ -1046,9 +1055,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3">
         <v>5.7</v>
@@ -1066,9 +1075,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3">
         <v>5.2</v>
@@ -1086,9 +1095,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B26" s="7">
         <f>TAN(B25)/TAN(B25+B24)</f>
@@ -1107,7 +1116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="D27" s="10">
         <v>4</v>
       </c>
@@ -1121,9 +1130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>152</v>
@@ -1133,26 +1142,26 @@
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <f>B28/(B16*0.9)</f>
         <v>22.518518518518519</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="15"/>
       <c r="G29" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1">
         <f>B28/(0.98*0.9)</f>
@@ -1173,9 +1182,9 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1">
         <f>B30/(0.9 *0.98*E13)</f>
@@ -1196,9 +1205,9 @@
         <v>73.75</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
         <f>B31/(0.98*E13)</f>
@@ -1219,7 +1228,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="D33" s="10">
         <v>4</v>
       </c>
@@ -1235,15 +1244,15 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1">
         <v>400</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E34" s="11">
         <v>6</v>
@@ -1251,9 +1260,9 @@
       <c r="F34" s="15"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1">
         <v>3000</v>
@@ -1264,10 +1273,10 @@
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="D36" s="10"/>
       <c r="E36" s="11">
         <v>6</v>
@@ -1278,9 +1287,9 @@
         <v>1.5707963267948966</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="11">
@@ -1289,7 +1298,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="18">
         <f>POWER((B32/(115*0.2)),1/3)</f>
         <v>0.53613808617321768</v>
@@ -1298,16 +1307,16 @@
       <c r="E38" s="11"/>
       <c r="F38" s="15"/>
       <c r="G38" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="18">
         <f>POWER((B31/(115*0.2)),1/3)</f>
         <v>1.0424112891975563</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E39" s="12">
         <f>4.15/112</f>
@@ -1319,7 +1328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="18">
         <f>POWER((B30/(115*0.2)),1/3)</f>
         <v>1.9568117865203589</v>
@@ -1331,10 +1340,10 @@
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="D41" s="10"/>
       <c r="E41" s="12">
         <f>E39</f>
@@ -1346,33 +1355,33 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="15"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="15"/>
       <c r="G43" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="D44" s="10" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="15" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D45" s="10">
         <v>12</v>
@@ -1382,16 +1391,16 @@
         <v>0.12504888962243466</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G45" s="16">
         <f>0.5*G16*(E6+E5)</f>
         <v>42.5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1">
         <v>1.3</v>
@@ -1409,9 +1418,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1">
         <f>B30</f>
@@ -1422,24 +1431,24 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1">
         <f>B47*B46</f>
         <v>224.03628117913834</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1">
         <v>71</v>
@@ -1448,15 +1457,15 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E50" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1">
         <v>16</v>
@@ -1469,9 +1478,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1">
         <f>1/3*((B50^3-B51^3)/(B50^2-B51^2))</f>
@@ -1482,9 +1491,9 @@
         <v>9.2857142857142847</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="D53" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E53" s="1">
         <f>7.85*10^4</f>
@@ -1494,9 +1503,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1">
         <f>(D47/(E50*B52))*1/E48</f>
@@ -1507,15 +1516,15 @@
         <v>30.153846153846157</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E54" s="1">
         <v>3.55</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B55" s="1">
         <f>B54/(1-0.05)</f>
@@ -1526,9 +1535,9 @@
         <v>3.7867247007616975</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1">
         <f>(D47/(E50*B52))*1/1</f>
@@ -1543,12 +1552,12 @@
         <v>15.14689880304679</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F57" s="1">
         <f>C54/(1-0.05)</f>
@@ -1559,53 +1568,53 @@
         <v>40.205128205128212</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B58" s="3">
         <v>3.2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E58" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3">
         <v>0.3</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E59" s="1">
         <f>B54/E58</f>
         <v>0.35500544069640916</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B60" s="3">
         <v>3.27</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E60" s="1">
         <f>B60/E59</f>
         <v>9.2111264367816084</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B61" s="1">
         <f>B58-B59</f>
@@ -1618,16 +1627,16 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1">
         <f>B61/B59</f>
         <v>9.6666666666666679</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="1">
         <v>1.5</v>
@@ -1637,77 +1646,77 @@
         <v>9.1829578544061299</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B63" s="3">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E63" s="1">
         <f>B60/E61</f>
         <v>0.38470588235294118</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B64" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B65" s="1">
         <f>E61+E62</f>
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B66" s="1">
         <f>(E53*B59^4)/(8*B63*B61^3)</f>
         <v>0.81472436344253507</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1">
         <f>B54/B66</f>
         <v>3.4858949271763002</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1">
         <f>B54/E63</f>
         <v>7.3823761368060623</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1">
         <f>E54/E63</f>
         <v>9.2278287461773694</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B70" s="1">
         <f>(B65+1 - 2)*B59</f>
